--- a/biology/Botanique/Horminum/Horminum.xlsx
+++ b/biology/Botanique/Horminum/Horminum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horminum pyrenaicum, l'Horminelle des Pyrénées, est une espèce de plantes herbacées vivaces de la famille des Lamiaceae, la seule du genre Horminum.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Horminum pyrenaicum atteint 30 cm de haut, ses tiges carrées sont garnies de poils courts. Ses feuilles basales gaufrées forment des rosettes. Ses fleurs bleu-violet à pourpre foncé, longues de 1,5 à 2 cm, aux 4 étamines saillantes, s'épanouissent sur des tiges bien dégagées et la floraison a lieu de juin à août.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Horminum pyrenaicum vit en Europe occidentale dans les Pyrénées et dans les Alpes (où elle est très rare dans les Alpes maritimes).
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur sols calcaires : pelouses et landes sèches, éboulis fins, entre 1 000 et 2 000 m d'altitude.
 </t>
